--- a/Примеры.xlsx
+++ b/Примеры.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="21015" windowHeight="8205"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="21015" windowHeight="8205" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="661">
   <si>
     <t>Операнд</t>
   </si>
@@ -1552,16 +1552,472 @@
   </si>
   <si>
     <t>"sg"</t>
+  </si>
+  <si>
+    <t>Знаки присвоения</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>конструкция</t>
+  </si>
+  <si>
+    <t>[переменная] = [операнд / операнды]</t>
+  </si>
+  <si>
+    <t>В словаре, для присвоения значений ключам словаря</t>
+  </si>
+  <si>
+    <t>В операнде, для присвоения значений переменным</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>&amp;</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Знаки операций для операндов</t>
+  </si>
+  <si>
+    <t>{[ключ]:[значение / операнд]}</t>
+  </si>
+  <si>
+    <t>На конце для вовзращаемого значения</t>
+  </si>
+  <si>
+    <t>[значение]!</t>
+  </si>
+  <si>
+    <t>^</t>
+  </si>
+  <si>
+    <t>Возведение в степень / убрать с конца?</t>
+  </si>
+  <si>
+    <t>Логические операции</t>
+  </si>
+  <si>
+    <t>==</t>
+  </si>
+  <si>
+    <t>&gt;</t>
+  </si>
+  <si>
+    <t>&gt;=</t>
+  </si>
+  <si>
+    <t>&lt;</t>
+  </si>
+  <si>
+    <t>&lt;=</t>
+  </si>
+  <si>
+    <t>&gt;&gt;</t>
+  </si>
+  <si>
+    <t>&lt;&lt;</t>
+  </si>
+  <si>
+    <t>Меньше либо равно</t>
+  </si>
+  <si>
+    <t>Больше либо равно</t>
+  </si>
+  <si>
+    <t>Меньше</t>
+  </si>
+  <si>
+    <t>Остаток от деления / убрать с начала?</t>
+  </si>
+  <si>
+    <t>[значение]+[значение]</t>
+  </si>
+  <si>
+    <t>[значение]&amp;[значение]</t>
+  </si>
+  <si>
+    <t>Знаки разделения</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>Разделитель конечных частей алгоритма</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>Конструкция</t>
+  </si>
+  <si>
+    <t>[операнд],[операнд],</t>
+  </si>
+  <si>
+    <t>'</t>
+  </si>
+  <si>
+    <t>"</t>
+  </si>
+  <si>
+    <t>'[строка]'</t>
+  </si>
+  <si>
+    <t>Однострочный текст</t>
+  </si>
+  <si>
+    <t>Многострочный текст</t>
+  </si>
+  <si>
+    <t>"[строка]"</t>
+  </si>
+  <si>
+    <t>([операнд / операнды])!</t>
+  </si>
+  <si>
+    <t>"[первая строка]\n[вторая строка]"</t>
+  </si>
+  <si>
+    <t>Знаки определения строки (str)</t>
+  </si>
+  <si>
+    <t>Знак определения перечисления (enum)</t>
+  </si>
+  <si>
+    <t>Разделитель операндов (если нет =)</t>
+  </si>
+  <si>
+    <t>[сложный операнд];[операнд]</t>
+  </si>
+  <si>
+    <t>определение перечисления, если в части алгоритма есть =</t>
+  </si>
+  <si>
+    <t>[переменная],[переменная] = [значение]</t>
+  </si>
+  <si>
+    <t>Знаки определения списка (list)</t>
+  </si>
+  <si>
+    <t>Список</t>
+  </si>
+  <si>
+    <t>Знак определения словаря (dict)</t>
+  </si>
+  <si>
+    <t>Словарь</t>
+  </si>
+  <si>
+    <t>{[ключ]:[значение], [ключ]:[значение]}</t>
+  </si>
+  <si>
+    <t>[[значение],[значение]]</t>
+  </si>
+  <si>
+    <t>Знак определения коллекции (coll)</t>
+  </si>
+  <si>
+    <t>Коллекция</t>
+  </si>
+  <si>
+    <t>([значение],[значение])</t>
+  </si>
+  <si>
+    <t>Знак опеределения функции (fun)</t>
+  </si>
+  <si>
+    <t>fun()</t>
+  </si>
+  <si>
+    <t>Функция</t>
+  </si>
+  <si>
+    <t>fun([аргумент],[аргумент])</t>
+  </si>
+  <si>
+    <t>Знаки сокращений операндов</t>
+  </si>
+  <si>
+    <t>+=</t>
+  </si>
+  <si>
+    <t>&amp;=</t>
+  </si>
+  <si>
+    <t>-=</t>
+  </si>
+  <si>
+    <t>~=</t>
+  </si>
+  <si>
+    <t>*=</t>
+  </si>
+  <si>
+    <t>/=</t>
+  </si>
+  <si>
+    <t>%=</t>
+  </si>
+  <si>
+    <t>^=</t>
+  </si>
+  <si>
+    <t>Знак определения базовых процедур (basic)</t>
+  </si>
+  <si>
+    <t>basic: или basic():</t>
+  </si>
+  <si>
+    <t>Базовая процедура</t>
+  </si>
+  <si>
+    <t>basic([условие]): [операнд], [операнд];</t>
+  </si>
+  <si>
+    <t>Базовая подпроцедура развлетвления</t>
+  </si>
+  <si>
+    <t>Знак определения блока кода (block)</t>
+  </si>
+  <si>
+    <t>{;}</t>
+  </si>
+  <si>
+    <t>() или (,)</t>
+  </si>
+  <si>
+    <t>{} или {,}</t>
+  </si>
+  <si>
+    <t>[] или [,]</t>
+  </si>
+  <si>
+    <t>Блок кода (знак ; обязателен, либо \n)</t>
+  </si>
+  <si>
+    <t>basic([условие]): [операнд], [операнд]; cond([условие]):</t>
+  </si>
+  <si>
+    <t>; cond или ; cond():</t>
+  </si>
+  <si>
+    <t>Развлетвление по случаям (case)</t>
+  </si>
+  <si>
+    <t>{: ; :}</t>
+  </si>
+  <si>
+    <t>Знаки переменных/значений</t>
+  </si>
+  <si>
+    <t>Отрицание (возвращает true или false)</t>
+  </si>
+  <si>
+    <t>Инекремент</t>
+  </si>
+  <si>
+    <t>Декремент</t>
+  </si>
+  <si>
+    <t>a:</t>
+  </si>
+  <si>
+    <t>Элемент из спика</t>
+  </si>
+  <si>
+    <t>Диапазон из списка</t>
+  </si>
+  <si>
+    <t>a.fun или a.fun()</t>
+  </si>
+  <si>
+    <t>Функции переменных/значений</t>
+  </si>
+  <si>
+    <t>Список от 1 до 10</t>
+  </si>
+  <si>
+    <t>Список от 'a'до 'd'</t>
+  </si>
+  <si>
+    <t>&amp;&amp;</t>
+  </si>
+  <si>
+    <t>||</t>
+  </si>
+  <si>
+    <t>И</t>
+  </si>
+  <si>
+    <t>Или</t>
+  </si>
+  <si>
+    <t>1..10</t>
+  </si>
+  <si>
+    <t>'a'..'d'</t>
+  </si>
+  <si>
+    <t>1...10</t>
+  </si>
+  <si>
+    <t>'a'...'d'</t>
+  </si>
+  <si>
+    <t>Список от 'a'до 'd', не включая 'd'</t>
+  </si>
+  <si>
+    <t>Список от 1 до 10, не включая 10</t>
+  </si>
+  <si>
+    <t>a:1..5</t>
+  </si>
+  <si>
+    <t>a:3..7?2</t>
+  </si>
+  <si>
+    <t>Диапазон из списка с условием (шагом)</t>
+  </si>
+  <si>
+    <t>Генерирование диапазонов (list)</t>
+  </si>
+  <si>
+    <t>a=3?1:2</t>
+  </si>
+  <si>
+    <t>Тернарное условие</t>
+  </si>
+  <si>
+    <t>Особые конструкции</t>
+  </si>
+  <si>
+    <t>[условие]?[значение для true]:[значение для false]</t>
+  </si>
+  <si>
+    <t>a(1,3)</t>
+  </si>
+  <si>
+    <t>a:[1,3]</t>
+  </si>
+  <si>
+    <t>a.start</t>
+  </si>
+  <si>
+    <t>Получить значения по номеру</t>
+  </si>
+  <si>
+    <t>a['start']</t>
+  </si>
+  <si>
+    <t>a:5:2</t>
+  </si>
+  <si>
+    <t>Получить вложенное значение</t>
+  </si>
+  <si>
+    <t>Получить значения по списку</t>
+  </si>
+  <si>
+    <t>a.start.from</t>
+  </si>
+  <si>
+    <t>Получить значение по ключу (только для dict)</t>
+  </si>
+  <si>
+    <t>Получить значение по ключу/ключам (только для dict)</t>
+  </si>
+  <si>
+    <t>Получить вложенное значение по ключам (только для dict)</t>
+  </si>
+  <si>
+    <t>a{}</t>
+  </si>
+  <si>
+    <t>Получить ключи первого уровня (только для dict)</t>
+  </si>
+  <si>
+    <t>a{1}</t>
+  </si>
+  <si>
+    <t>Получить ключи второго уровня (только для dict)</t>
+  </si>
+  <si>
+    <t>a{..}</t>
+  </si>
+  <si>
+    <t>Получить ключи всех уровней (только для dict)</t>
+  </si>
+  <si>
+    <t>Получить номера/ключи по значению</t>
+  </si>
+  <si>
+    <t>\a</t>
+  </si>
+  <si>
+    <t>Реверсия значения</t>
+  </si>
+  <si>
+    <t>a@true</t>
+  </si>
+  <si>
+    <t>Знаки указатели и значения в переменную</t>
+  </si>
+  <si>
+    <t>@a</t>
+  </si>
+  <si>
+    <t>Указатель на значение переменной a</t>
+  </si>
+  <si>
+    <t>a$w</t>
+  </si>
+  <si>
+    <t>Укаталель на значение переменной w</t>
+  </si>
+  <si>
+    <t>a:.. - получить все значения из словаря списком</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -1680,10 +2136,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1701,12 +2158,19 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1785,6 +2249,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1819,6 +2284,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1994,14 +2460,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="14.28515625" customWidth="1"/>
@@ -2014,8 +2480,8 @@
     <col min="10" max="10" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1"/>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
@@ -2039,7 +2505,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>51</v>
       </c>
@@ -2065,7 +2531,7 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>52</v>
       </c>
@@ -2093,7 +2559,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>54</v>
       </c>
@@ -2117,7 +2583,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>58</v>
       </c>
@@ -2141,7 +2607,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>53</v>
       </c>
@@ -2169,7 +2635,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>59</v>
       </c>
@@ -2193,7 +2659,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" ht="14.25" customHeight="1">
+    <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>60</v>
       </c>
@@ -2217,7 +2683,7 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="14.25" customHeight="1">
+    <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>76</v>
       </c>
@@ -2241,7 +2707,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="14.25" customHeight="1">
+    <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>76</v>
       </c>
@@ -2261,7 +2727,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="14.25" customHeight="1">
+    <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>77</v>
       </c>
@@ -2287,7 +2753,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" ht="14.25" customHeight="1">
+    <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>77</v>
       </c>
@@ -2307,7 +2773,7 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" ht="14.25" customHeight="1">
+    <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>93</v>
       </c>
@@ -2331,7 +2797,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" ht="14.25" customHeight="1">
+    <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>92</v>
       </c>
@@ -2355,7 +2821,7 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" ht="14.25" customHeight="1">
+    <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>93</v>
       </c>
@@ -2379,7 +2845,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" ht="14.25" customHeight="1">
+    <row r="17" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>92</v>
       </c>
@@ -2403,7 +2869,7 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>71</v>
       </c>
@@ -2427,7 +2893,7 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>72</v>
       </c>
@@ -2453,7 +2919,7 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="8" t="s">
         <v>15</v>
@@ -2475,7 +2941,7 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>407</v>
       </c>
@@ -2499,7 +2965,7 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>406</v>
       </c>
@@ -2523,7 +2989,7 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>405</v>
       </c>
@@ -2545,7 +3011,7 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>425</v>
       </c>
@@ -2567,7 +3033,7 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>403</v>
       </c>
@@ -2591,7 +3057,7 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>404</v>
       </c>
@@ -2615,7 +3081,7 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>402</v>
       </c>
@@ -2637,7 +3103,7 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>408</v>
       </c>
@@ -2659,7 +3125,7 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>409</v>
       </c>
@@ -2681,7 +3147,7 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>411</v>
       </c>
@@ -2703,7 +3169,7 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>427</v>
       </c>
@@ -2725,7 +3191,7 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>488</v>
       </c>
@@ -2743,7 +3209,7 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>499</v>
       </c>
@@ -2761,7 +3227,7 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>499</v>
       </c>
@@ -2779,7 +3245,7 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>499</v>
       </c>
@@ -2797,7 +3263,7 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>504</v>
       </c>
@@ -2815,7 +3281,7 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>508</v>
       </c>
@@ -2833,7 +3299,7 @@
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>508</v>
       </c>
@@ -2851,7 +3317,7 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>483</v>
       </c>
@@ -2869,7 +3335,7 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>483</v>
       </c>
@@ -2885,7 +3351,7 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>483</v>
       </c>
@@ -2901,7 +3367,7 @@
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>486</v>
       </c>
@@ -2919,7 +3385,7 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="8" t="s">
         <v>497</v>
@@ -2935,7 +3401,7 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>494</v>
       </c>
@@ -2953,7 +3419,7 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -2964,7 +3430,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -2975,7 +3441,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -2986,7 +3452,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -2997,7 +3463,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -3008,7 +3474,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -3019,7 +3485,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -3030,7 +3496,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -3041,7 +3507,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -3052,7 +3518,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -3070,14 +3536,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K161"/>
   <sheetViews>
-    <sheetView topLeftCell="A134" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D154" sqref="D154"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
@@ -3086,12 +3552,12 @@
     <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>107</v>
       </c>
@@ -3123,7 +3589,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>108</v>
       </c>
@@ -3149,7 +3615,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>110</v>
       </c>
@@ -3175,7 +3641,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>111</v>
       </c>
@@ -3201,7 +3667,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>234</v>
       </c>
@@ -3230,7 +3696,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>340</v>
       </c>
@@ -3256,7 +3722,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>370</v>
       </c>
@@ -3282,7 +3748,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>370</v>
       </c>
@@ -3305,7 +3771,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>370</v>
       </c>
@@ -3334,7 +3800,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>370</v>
       </c>
@@ -3345,12 +3811,12 @@
         <v>361</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>128</v>
       </c>
@@ -3367,7 +3833,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>108</v>
       </c>
@@ -3384,7 +3850,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>110</v>
       </c>
@@ -3401,7 +3867,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>111</v>
       </c>
@@ -3418,7 +3884,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>234</v>
       </c>
@@ -3438,7 +3904,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>340</v>
       </c>
@@ -3456,7 +3922,7 @@
       </c>
       <c r="H20" s="16"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>371</v>
       </c>
@@ -3482,7 +3948,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>371</v>
       </c>
@@ -3505,7 +3971,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>371</v>
       </c>
@@ -3531,7 +3997,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>371</v>
       </c>
@@ -3545,12 +4011,12 @@
         <v>359</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>145</v>
       </c>
@@ -3567,7 +4033,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>108</v>
       </c>
@@ -3584,7 +4050,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>110</v>
       </c>
@@ -3601,7 +4067,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>111</v>
       </c>
@@ -3618,7 +4084,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>235</v>
       </c>
@@ -3638,12 +4104,12 @@
         <v>159</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>162</v>
       </c>
@@ -3660,7 +4126,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>108</v>
       </c>
@@ -3677,7 +4143,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>110</v>
       </c>
@@ -3694,7 +4160,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>111</v>
       </c>
@@ -3711,7 +4177,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>233</v>
       </c>
@@ -3731,12 +4197,12 @@
         <v>182</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>184</v>
       </c>
@@ -3753,7 +4219,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>108</v>
       </c>
@@ -3770,7 +4236,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>110</v>
       </c>
@@ -3787,7 +4253,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>111</v>
       </c>
@@ -3804,7 +4270,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>236</v>
       </c>
@@ -3824,12 +4290,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>202</v>
       </c>
@@ -3846,7 +4312,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>108</v>
       </c>
@@ -3863,7 +4329,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>110</v>
       </c>
@@ -3880,7 +4346,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>111</v>
       </c>
@@ -3897,7 +4363,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>237</v>
       </c>
@@ -3917,12 +4383,12 @@
         <v>218</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>219</v>
       </c>
@@ -3939,7 +4405,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>108</v>
       </c>
@@ -3956,7 +4422,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>110</v>
       </c>
@@ -3973,7 +4439,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>111</v>
       </c>
@@ -3990,7 +4456,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>232</v>
       </c>
@@ -4010,12 +4476,12 @@
         <v>230</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>239</v>
       </c>
@@ -4032,7 +4498,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>108</v>
       </c>
@@ -4049,7 +4515,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>110</v>
       </c>
@@ -4066,7 +4532,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>111</v>
       </c>
@@ -4083,7 +4549,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>261</v>
       </c>
@@ -4103,17 +4569,17 @@
         <v>257</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>263</v>
       </c>
@@ -4130,7 +4596,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>108</v>
       </c>
@@ -4147,7 +4613,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>110</v>
       </c>
@@ -4164,7 +4630,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>111</v>
       </c>
@@ -4181,7 +4647,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>109</v>
       </c>
@@ -4198,12 +4664,12 @@
         <v>277</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>280</v>
       </c>
@@ -4220,7 +4686,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>108</v>
       </c>
@@ -4237,7 +4703,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>110</v>
       </c>
@@ -4254,7 +4720,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>111</v>
       </c>
@@ -4271,7 +4737,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>287</v>
       </c>
@@ -4291,37 +4757,37 @@
         <v>298</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="113" spans="2:6">
+    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="114" spans="2:6">
+    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="115" spans="2:6">
+    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="118" spans="2:6">
+    <row r="118" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="119" spans="2:6">
+    <row r="119" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
         <v>306</v>
       </c>
@@ -4338,7 +4804,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="120" spans="2:6">
+    <row r="120" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
         <v>108</v>
       </c>
@@ -4355,7 +4821,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="121" spans="2:6">
+    <row r="121" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
         <v>110</v>
       </c>
@@ -4372,7 +4838,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="122" spans="2:6">
+    <row r="122" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>111</v>
       </c>
@@ -4389,7 +4855,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="123" spans="2:6">
+    <row r="123" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
         <v>109</v>
       </c>
@@ -4406,12 +4872,12 @@
         <v>322</v>
       </c>
     </row>
-    <row r="128" spans="2:6">
+    <row r="128" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="129" spans="2:7">
+    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
         <v>324</v>
       </c>
@@ -4428,7 +4894,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="130" spans="2:7">
+    <row r="130" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
         <v>108</v>
       </c>
@@ -4445,7 +4911,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="131" spans="2:7">
+    <row r="131" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
         <v>110</v>
       </c>
@@ -4462,7 +4928,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="132" spans="2:7">
+    <row r="132" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
         <v>111</v>
       </c>
@@ -4479,7 +4945,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="133" spans="2:7">
+    <row r="133" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
         <v>109</v>
       </c>
@@ -4496,7 +4962,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="139" spans="2:7">
+    <row r="139" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
         <v>403</v>
       </c>
@@ -4504,7 +4970,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="140" spans="2:7">
+    <row r="140" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
         <v>428</v>
       </c>
@@ -4524,7 +4990,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="141" spans="2:7">
+    <row r="141" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
         <v>4</v>
       </c>
@@ -4544,7 +5010,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="142" spans="2:7">
+    <row r="142" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
         <v>108</v>
       </c>
@@ -4564,7 +5030,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="143" spans="2:7">
+    <row r="143" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
         <v>110</v>
       </c>
@@ -4584,7 +5050,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="144" spans="2:7">
+    <row r="144" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
         <v>111</v>
       </c>
@@ -4604,7 +5070,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
         <v>109</v>
       </c>
@@ -4624,7 +5090,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>468</v>
       </c>
@@ -4641,17 +5107,17 @@
         <v>471</v>
       </c>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
         <v>449</v>
       </c>
@@ -4671,7 +5137,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
         <v>4</v>
       </c>
@@ -4691,7 +5157,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
         <v>108</v>
       </c>
@@ -4711,7 +5177,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
         <v>110</v>
       </c>
@@ -4731,7 +5197,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
         <v>111</v>
       </c>
@@ -4751,7 +5217,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
         <v>109</v>
       </c>
@@ -4771,17 +5237,17 @@
         <v>466</v>
       </c>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C159" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C160" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="161" spans="3:3">
+    <row r="161" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C161" t="s">
         <v>482</v>
       </c>
@@ -4792,13 +5258,707 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E95"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="A85" sqref="A85"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="57.140625" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>548</v>
+      </c>
+      <c r="C3" t="s">
+        <v>549</v>
+      </c>
+      <c r="D3" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>550</v>
+      </c>
+      <c r="C4" t="s">
+        <v>563</v>
+      </c>
+      <c r="D4" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="16" t="s">
+        <v>553</v>
+      </c>
+      <c r="C7" t="s">
+        <v>556</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>554</v>
+      </c>
+      <c r="C8" t="s">
+        <v>557</v>
+      </c>
+      <c r="D8" t="s">
+        <v>560</v>
+      </c>
+      <c r="E8" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>550</v>
+      </c>
+      <c r="C11" t="s">
+        <v>565</v>
+      </c>
+      <c r="D11" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>598</v>
+      </c>
+      <c r="C13" t="s">
+        <v>568</v>
+      </c>
+      <c r="D13" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>597</v>
+      </c>
+      <c r="C15" t="s">
+        <v>570</v>
+      </c>
+      <c r="D15" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>596</v>
+      </c>
+      <c r="C17" t="s">
+        <v>574</v>
+      </c>
+      <c r="D17" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>577</v>
+      </c>
+      <c r="C19" t="s">
+        <v>578</v>
+      </c>
+      <c r="D19" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>590</v>
+      </c>
+      <c r="C21" t="s">
+        <v>591</v>
+      </c>
+      <c r="D21" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>601</v>
+      </c>
+      <c r="C22" t="s">
+        <v>593</v>
+      </c>
+      <c r="D22" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>595</v>
+      </c>
+      <c r="C24" t="s">
+        <v>599</v>
+      </c>
+      <c r="D24" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>603</v>
+      </c>
+      <c r="C26" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="16" t="s">
+        <v>656</v>
+      </c>
+      <c r="C29" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>658</v>
+      </c>
+      <c r="C30" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>512</v>
+      </c>
+      <c r="D32" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>514</v>
+      </c>
+      <c r="C33" t="s">
+        <v>518</v>
+      </c>
+      <c r="D33" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>513</v>
+      </c>
+      <c r="C34" t="s">
+        <v>517</v>
+      </c>
+      <c r="D34" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>519</v>
+      </c>
+      <c r="C35" t="s">
+        <v>529</v>
+      </c>
+      <c r="D35" t="s">
+        <v>530</v>
+      </c>
+      <c r="E35" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>520</v>
+      </c>
+      <c r="C39" t="s">
+        <v>164</v>
+      </c>
+      <c r="D39" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>522</v>
+      </c>
+      <c r="C40" t="s">
+        <v>165</v>
+      </c>
+      <c r="D40" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>521</v>
+      </c>
+      <c r="C41" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>523</v>
+      </c>
+      <c r="C42" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>524</v>
+      </c>
+      <c r="C43" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>525</v>
+      </c>
+      <c r="C44" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>526</v>
+      </c>
+      <c r="C45" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>531</v>
+      </c>
+      <c r="C46" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>615</v>
+      </c>
+      <c r="C48" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>616</v>
+      </c>
+      <c r="C49" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B50" s="16" t="s">
+        <v>534</v>
+      </c>
+      <c r="C50" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>535</v>
+      </c>
+      <c r="C51" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>536</v>
+      </c>
+      <c r="C52" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>537</v>
+      </c>
+      <c r="C53" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>538</v>
+      </c>
+      <c r="C54" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>539</v>
+      </c>
+      <c r="C55" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>540</v>
+      </c>
+      <c r="C56" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B59" s="16" t="s">
+        <v>581</v>
+      </c>
+      <c r="C59" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>582</v>
+      </c>
+      <c r="C60" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B61" s="16" t="s">
+        <v>583</v>
+      </c>
+      <c r="C61" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>584</v>
+      </c>
+      <c r="C62" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>585</v>
+      </c>
+      <c r="C63" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>586</v>
+      </c>
+      <c r="C64" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>587</v>
+      </c>
+      <c r="C65" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>588</v>
+      </c>
+      <c r="C66" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>629</v>
+      </c>
+      <c r="C69" t="s">
+        <v>630</v>
+      </c>
+      <c r="D69" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>652</v>
+      </c>
+      <c r="C70" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>42</v>
+      </c>
+      <c r="C73" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>608</v>
+      </c>
+      <c r="C76" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>625</v>
+      </c>
+      <c r="C77" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>633</v>
+      </c>
+      <c r="C78" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>634</v>
+      </c>
+      <c r="C79" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>638</v>
+      </c>
+      <c r="C80" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>626</v>
+      </c>
+      <c r="C81" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>635</v>
+      </c>
+      <c r="C82" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>637</v>
+      </c>
+      <c r="C83" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>641</v>
+      </c>
+      <c r="C84" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>645</v>
+      </c>
+      <c r="C85" t="s">
+        <v>646</v>
+      </c>
+      <c r="D85" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>647</v>
+      </c>
+      <c r="C86" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>649</v>
+      </c>
+      <c r="C87" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>654</v>
+      </c>
+      <c r="C88" t="s">
+        <v>651</v>
+      </c>
+      <c r="D88" s="17"/>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>611</v>
+      </c>
+      <c r="C89" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>619</v>
+      </c>
+      <c r="C92" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>621</v>
+      </c>
+      <c r="C93" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B94" s="16" t="s">
+        <v>620</v>
+      </c>
+      <c r="C94" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B95" s="16" t="s">
+        <v>622</v>
+      </c>
+      <c r="C95" t="s">
+        <v>623</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Примеры.xlsx
+++ b/Примеры.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="21015" windowHeight="8205" activeTab="2"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="932">
   <si>
     <t>Операнд</t>
   </si>
@@ -1503,18 +1503,6 @@
     <t>Удалить элемент списка</t>
   </si>
   <si>
-    <t>a=1?4</t>
-  </si>
-  <si>
-    <t>if(a=4): a=1</t>
-  </si>
-  <si>
-    <t>a=1?</t>
-  </si>
-  <si>
-    <t>if(a=null): a=1</t>
-  </si>
-  <si>
     <t>Получение первого элемента списка</t>
   </si>
   <si>
@@ -1999,13 +1987,838 @@
   </si>
   <si>
     <t>a:.. - получить все значения из словаря списком</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>Физическое ИЛИ</t>
+  </si>
+  <si>
+    <t>Физическое И</t>
+  </si>
+  <si>
+    <t>Удаление элементов списка</t>
+  </si>
+  <si>
+    <t>[список]~2</t>
+  </si>
+  <si>
+    <t>[список]~[2,3,5]</t>
+  </si>
+  <si>
+    <t>[значение]-[значение]</t>
+  </si>
+  <si>
+    <t>a&gt;&lt;b</t>
+  </si>
+  <si>
+    <t>Поменять значения местами</t>
+  </si>
+  <si>
+    <t>s:?+2</t>
+  </si>
+  <si>
+    <t>Добавить всем значениям списка +2</t>
+  </si>
+  <si>
+    <t>Присвоить значения всем переменным перечисления</t>
+  </si>
+  <si>
+    <t>a, b, c = 1</t>
+  </si>
+  <si>
+    <t>a = 1, b = 1, c = 1</t>
+  </si>
+  <si>
+    <t>Присвоить тип переменной</t>
+  </si>
+  <si>
+    <t>int: a</t>
+  </si>
+  <si>
+    <t>Присвоить тип переменным</t>
+  </si>
+  <si>
+    <t>int: a, b, c</t>
+  </si>
+  <si>
+    <t>a=4?2</t>
+  </si>
+  <si>
+    <t>a = (2 - 3) &gt; 2 ? 1 : 2</t>
+  </si>
+  <si>
+    <t>if(a == 4): a=2</t>
+  </si>
+  <si>
+    <t>a=?4</t>
+  </si>
+  <si>
+    <t>if(a == null): a=4</t>
+  </si>
+  <si>
+    <t>int: a = null</t>
+  </si>
+  <si>
+    <t>Присвоить тип переменной, не равной null</t>
+  </si>
+  <si>
+    <t>int: a!</t>
+  </si>
+  <si>
+    <t>int: a = 0</t>
+  </si>
+  <si>
+    <t>Присвоить переменной перечисление</t>
+  </si>
+  <si>
+    <t>a = 1, 2</t>
+  </si>
+  <si>
+    <t>enum: (a, b, c) = int: 1</t>
+  </si>
+  <si>
+    <t>enum: a = enum: (1, 2)</t>
+  </si>
+  <si>
+    <t>unk:</t>
+  </si>
+  <si>
+    <t>bool:</t>
+  </si>
+  <si>
+    <t>Неопределённый</t>
+  </si>
+  <si>
+    <t>Булевый</t>
+  </si>
+  <si>
+    <t>int:</t>
+  </si>
+  <si>
+    <t>float:</t>
+  </si>
+  <si>
+    <t>str:</t>
+  </si>
+  <si>
+    <t>list:</t>
+  </si>
+  <si>
+    <t>coll:</t>
+  </si>
+  <si>
+    <t>dict:</t>
+  </si>
+  <si>
+    <t>Базовые типы переменных:</t>
+  </si>
+  <si>
+    <t>Списочные типы переменных</t>
+  </si>
+  <si>
+    <t>enum:</t>
+  </si>
+  <si>
+    <t>db:</t>
+  </si>
+  <si>
+    <t>Особые типы переменных</t>
+  </si>
+  <si>
+    <t>date:</t>
+  </si>
+  <si>
+    <t>Целочисленный</t>
+  </si>
+  <si>
+    <t>Вещественный</t>
+  </si>
+  <si>
+    <t>Строка</t>
+  </si>
+  <si>
+    <t>Перечисление</t>
+  </si>
+  <si>
+    <t>Блок кода</t>
+  </si>
+  <si>
+    <t>block:</t>
+  </si>
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>База данных</t>
+  </si>
+  <si>
+    <t>table:</t>
+  </si>
+  <si>
+    <t>Таблица</t>
+  </si>
+  <si>
+    <t>Способ присвоения</t>
+  </si>
+  <si>
+    <t>a = true</t>
+  </si>
+  <si>
+    <t>a, a = null</t>
+  </si>
+  <si>
+    <t>a = ''</t>
+  </si>
+  <si>
+    <t>a = 0</t>
+  </si>
+  <si>
+    <t>a = .</t>
+  </si>
+  <si>
+    <t>a = []</t>
+  </si>
+  <si>
+    <t>a = ()</t>
+  </si>
+  <si>
+    <t>a = {}</t>
+  </si>
+  <si>
+    <t>a = ,</t>
+  </si>
+  <si>
+    <t>Перевод операндов на следующую строку (игнорирование ;)</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>a = 3 + _</t>
+  </si>
+  <si>
+    <t>символ в конце строки кода</t>
+  </si>
+  <si>
+    <t>a = {;}</t>
+  </si>
+  <si>
+    <t>a = date()</t>
+  </si>
+  <si>
+    <t>a = db()</t>
+  </si>
+  <si>
+    <t>a = table()</t>
+  </si>
+  <si>
+    <t>Пример</t>
+  </si>
+  <si>
+    <t>Создание быстрой функции</t>
+  </si>
+  <si>
+    <t>sum(a,b)</t>
+  </si>
+  <si>
+    <t>Быстрое возвращение значения</t>
+  </si>
+  <si>
+    <t>fast = {a+b;}</t>
+  </si>
+  <si>
+    <t>Быстрое создание нового метода</t>
+  </si>
+  <si>
+    <t>"upper".Upper</t>
+  </si>
+  <si>
+    <t>'Upper'</t>
+  </si>
+  <si>
+    <t>5.div(2)</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>циклы:</t>
+  </si>
+  <si>
+    <t>Простое повторение 3 раза</t>
+  </si>
+  <si>
+    <t>for(1..3): print('Hi')</t>
+  </si>
+  <si>
+    <t>Вывод строки в консоли</t>
+  </si>
+  <si>
+    <t>print(a, b, c)</t>
+  </si>
+  <si>
+    <t>Вывод значения/значений в консоли без перевода строки</t>
+  </si>
+  <si>
+    <t>print:</t>
+  </si>
+  <si>
+    <t>put:</t>
+  </si>
+  <si>
+    <t>print: a, b, c</t>
+  </si>
+  <si>
+    <t>put: a, b</t>
+  </si>
+  <si>
+    <t>Точка входа компилятора (берётся первая в своём уровне)</t>
+  </si>
+  <si>
+    <t>Точка прекращения работы программы (компилятора)</t>
+  </si>
+  <si>
+    <t>exit:</t>
+  </si>
+  <si>
+    <t>Точка входа компилятора для функций/блоков (берётся первая в своём уровне)</t>
+  </si>
+  <si>
+    <t>Принудительный выход из цикла</t>
+  </si>
+  <si>
+    <t>enter:</t>
+  </si>
+  <si>
+    <t>enter: '-t'</t>
+  </si>
+  <si>
+    <t>start:</t>
+  </si>
+  <si>
+    <t>end:</t>
+  </si>
+  <si>
+    <t>start: debag</t>
+  </si>
+  <si>
+    <t>end: debag</t>
+  </si>
+  <si>
+    <t>break:</t>
+  </si>
+  <si>
+    <t>next:</t>
+  </si>
+  <si>
+    <t>replay:</t>
+  </si>
+  <si>
+    <t>Переход к следующему циклу</t>
+  </si>
+  <si>
+    <t>Воспроизвести цикл заново</t>
+  </si>
+  <si>
+    <t>Точка выхода компилятора для функций/блоков</t>
+  </si>
+  <si>
+    <t>puts:</t>
+  </si>
+  <si>
+    <t>Вывод значения/значений c добавлением пробелов</t>
+  </si>
+  <si>
+    <t>puts: a, b</t>
+  </si>
+  <si>
+    <t>for(t -&gt; 1..3): puts: t</t>
+  </si>
+  <si>
+    <t>1 2 3</t>
+  </si>
+  <si>
+    <t>a:3..7?&lt;10</t>
+  </si>
+  <si>
+    <t>Диапазон из списка с условием (значение меньше 10)</t>
+  </si>
+  <si>
+    <t>Повторения из списка с присваиванием временной переменной</t>
+  </si>
+  <si>
+    <t>Повторения из словаря с присваиванием временных переменных</t>
+  </si>
+  <si>
+    <t>Повторение из списка (включая все вложенные списки)</t>
+  </si>
+  <si>
+    <t>for(): или for:</t>
+  </si>
+  <si>
+    <t>Бесконечный цикл</t>
+  </si>
+  <si>
+    <t>Цикл по начальному условию</t>
+  </si>
+  <si>
+    <t>Включение режима игнорирования ошибок</t>
+  </si>
+  <si>
+    <t>trying: print: exception</t>
+  </si>
+  <si>
+    <t>Обработка ошибок:</t>
+  </si>
+  <si>
+    <t>Условия:</t>
+  </si>
+  <si>
+    <t>Пустое условие: если none=true</t>
+  </si>
+  <si>
+    <t>if(): или if:</t>
+  </si>
+  <si>
+    <t>if(a): ;[elsif:] ;[elsif:] ;[else:]</t>
+  </si>
+  <si>
+    <t>Ряд условий</t>
+  </si>
+  <si>
+    <t>if(a): a = 1; else: a = 0</t>
+  </si>
+  <si>
+    <t>case(a):{:}[else:]</t>
+  </si>
+  <si>
+    <t>Обработка случаев по значениям</t>
+  </si>
+  <si>
+    <t>case(age):{0...5: 'младенец'; 5…12: 'ребёнок'; 12…18: 'подросток'};else: 'взрослый'</t>
+  </si>
+  <si>
+    <t>a = a ? 1 : 0</t>
+  </si>
+  <si>
+    <t>Переходы:</t>
+  </si>
+  <si>
+    <t>go: start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">go: </t>
+  </si>
+  <si>
+    <t>Переход по ссылке</t>
+  </si>
+  <si>
+    <t>ref: start</t>
+  </si>
+  <si>
+    <t>try: {} [except:]</t>
+  </si>
+  <si>
+    <t>for(1..3): {}</t>
+  </si>
+  <si>
+    <t>for(t -&gt; 1..3): {}</t>
+  </si>
+  <si>
+    <t>for(key,value -&gt; dic): {}</t>
+  </si>
+  <si>
+    <t>for(t -&gt; dic:?&gt;1): {}</t>
+  </si>
+  <si>
+    <t>each(lList): {}</t>
+  </si>
+  <si>
+    <t>while(a &gt; 1): {}</t>
+  </si>
+  <si>
+    <t>while(): или while: {}</t>
+  </si>
+  <si>
+    <t>do: {} [while(a&gt;1):]</t>
+  </si>
+  <si>
+    <t>a=1, b=3, fast</t>
+  </si>
+  <si>
+    <t>Быстрый код блока</t>
+  </si>
+  <si>
+    <t>Быстрая функция</t>
+  </si>
+  <si>
+    <t>Быстрое создание нового типа</t>
+  </si>
+  <si>
+    <t>Быстрое создание класса объектов</t>
+  </si>
+  <si>
+    <t>method(str): Upper = self:.upper</t>
+  </si>
+  <si>
+    <t>method(int, float): div = float: self / @div</t>
+  </si>
+  <si>
+    <t>fun: sum = @a + @b</t>
+  </si>
+  <si>
+    <t>fun: print = print: enum: @all</t>
+  </si>
+  <si>
+    <t>boy = man(21,'Олег')</t>
+  </si>
+  <si>
+    <t>boy.age</t>
+  </si>
+  <si>
+    <t>boy.name</t>
+  </si>
+  <si>
+    <t>type(str): email = {format: '[a..z,.][0..9]@[a..z][0..9].[a..z]'; operands: false}</t>
+  </si>
+  <si>
+    <t>mail = 'ascon@info.ru'</t>
+  </si>
+  <si>
+    <t>mail.print</t>
+  </si>
+  <si>
+    <t>man{'Олег', 21}</t>
+  </si>
+  <si>
+    <t>man{age=21, name='Олег'}</t>
+  </si>
+  <si>
+    <t>Создание словаря с ключами-переменными</t>
+  </si>
+  <si>
+    <t>dict: man = {:name, :age}</t>
+  </si>
+  <si>
+    <t>Создание функций с именными атрибутами</t>
+  </si>
+  <si>
+    <t>return:</t>
+  </si>
+  <si>
+    <t>Досрочное возвращение значения / значений</t>
+  </si>
+  <si>
+    <t>fun: fullName(last, first, middle=null) = last &amp; first &amp; middle</t>
+  </si>
+  <si>
+    <t>fullName(first='Олег', last='Иванов')</t>
+  </si>
+  <si>
+    <t>'Иванов Олег'</t>
+  </si>
+  <si>
+    <t>Создание метода с именными атрибутами</t>
+  </si>
+  <si>
+    <t>class: man = {int: @age = 18, str: @name = 'Noname'}</t>
+  </si>
+  <si>
+    <t>man: newMan</t>
+  </si>
+  <si>
+    <t>method(int, float): sqrt = {self.float ^ 0.5}</t>
+  </si>
+  <si>
+    <t>Базовые процедуры:</t>
+  </si>
+  <si>
+    <t>rnd(1..5)</t>
+  </si>
+  <si>
+    <t>Рандомное значение из списка</t>
+  </si>
+  <si>
+    <t>round()</t>
+  </si>
+  <si>
+    <t>format()</t>
+  </si>
+  <si>
+    <t>def()</t>
+  </si>
+  <si>
+    <t>Значение по умолчанию</t>
+  </si>
+  <si>
+    <t>Форматирование в текст</t>
+  </si>
+  <si>
+    <t>Округление чисел</t>
+  </si>
+  <si>
+    <t>int()</t>
+  </si>
+  <si>
+    <t>bool()</t>
+  </si>
+  <si>
+    <t>float()</t>
+  </si>
+  <si>
+    <t>list()</t>
+  </si>
+  <si>
+    <t>dict()</t>
+  </si>
+  <si>
+    <t>type()</t>
+  </si>
+  <si>
+    <t>Получение типа</t>
+  </si>
+  <si>
+    <t>Базовые функции/методы:</t>
+  </si>
+  <si>
+    <t>int(5.99)</t>
+  </si>
+  <si>
+    <t>5.99.round</t>
+  </si>
+  <si>
+    <t>5.9</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>5.99.round(.1)</t>
+  </si>
+  <si>
+    <t>100003.2034377372.format('{xxx} {xxx},{xx}')</t>
+  </si>
+  <si>
+    <t>def([1,2,3]:)</t>
+  </si>
+  <si>
+    <t>def([1,2,3]:?)</t>
+  </si>
+  <si>
+    <t>bool(124)</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>float([1,3])</t>
+  </si>
+  <si>
+    <t>min()</t>
+  </si>
+  <si>
+    <t>max()</t>
+  </si>
+  <si>
+    <t>Минимальное значение в списке</t>
+  </si>
+  <si>
+    <t>Максимальное значение в списке</t>
+  </si>
+  <si>
+    <t>sum()</t>
+  </si>
+  <si>
+    <t>Сумма всех значений</t>
+  </si>
+  <si>
+    <t>Проверка эквивалентности</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>5.0.eql(5)</t>
+  </si>
+  <si>
+    <t>min(2,3,4)</t>
+  </si>
+  <si>
+    <t>max(22,34)</t>
+  </si>
+  <si>
+    <t>[2,5,[1,1]].sum</t>
+  </si>
+  <si>
+    <t>Добавить в конец списка или в указанную позицию</t>
+  </si>
+  <si>
+    <t>(4,2).add(2)</t>
+  </si>
+  <si>
+    <t>(4,2)</t>
+  </si>
+  <si>
+    <t>.add</t>
+  </si>
+  <si>
+    <t>eql(,)</t>
+  </si>
+  <si>
+    <t>file:</t>
+  </si>
+  <si>
+    <t>Файл</t>
+  </si>
+  <si>
+    <t>a = file()</t>
+  </si>
+  <si>
+    <t>Работа с файлами</t>
+  </si>
+  <si>
+    <t>file = file('test.txt')</t>
+  </si>
+  <si>
+    <t>del()</t>
+  </si>
+  <si>
+    <t>Удалить элементы</t>
+  </si>
+  <si>
+    <t>del(a:1, r:2)</t>
+  </si>
+  <si>
+    <t>del:</t>
+  </si>
+  <si>
+    <t>Удалить переменные</t>
+  </si>
+  <si>
+    <t>a.del</t>
+  </si>
+  <si>
+    <t>file.strings</t>
+  </si>
+  <si>
+    <t>Получение всех строк из файла</t>
+  </si>
+  <si>
+    <t>file.del</t>
+  </si>
+  <si>
+    <t>Удаление файла</t>
+  </si>
+  <si>
+    <t>dir:</t>
+  </si>
+  <si>
+    <t>Директория / папка</t>
+  </si>
+  <si>
+    <t>a = dir()</t>
+  </si>
+  <si>
+    <t>file.save</t>
+  </si>
+  <si>
+    <t>Сохранение файла</t>
+  </si>
+  <si>
+    <t>file += '\nНовая строка'</t>
+  </si>
+  <si>
+    <t>Работа с большими файлами (дописать)</t>
+  </si>
+  <si>
+    <t>dir = dir()</t>
+  </si>
+  <si>
+    <t>dir.files(all=true)</t>
+  </si>
+  <si>
+    <t>dir.dirs</t>
+  </si>
+  <si>
+    <t>Возвращение списка каталогов текущего уровня</t>
+  </si>
+  <si>
+    <t>Возвращение списка всех файлов</t>
+  </si>
+  <si>
+    <t>file = dir.files:</t>
+  </si>
+  <si>
+    <t>Получение первого файла в списке</t>
+  </si>
+  <si>
+    <t>save('test.txt', file)</t>
+  </si>
+  <si>
+    <t>save('test.txt', newStrings, 'a')</t>
+  </si>
+  <si>
+    <t>import:</t>
+  </si>
+  <si>
+    <t>Импортируемые модули</t>
+  </si>
+  <si>
+    <t>a()</t>
+  </si>
+  <si>
+    <t>import: test{a:append, b:boolean}, bot.setting{}, alias</t>
+  </si>
+  <si>
+    <t>setup:</t>
+  </si>
+  <si>
+    <t>Автоустановка?</t>
+  </si>
+  <si>
+    <t>Комментарии</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Коментирование всей строки</t>
+  </si>
+  <si>
+    <t>#{}#</t>
+  </si>
+  <si>
+    <t>Многострочное комментирование</t>
+  </si>
+  <si>
+    <t>Автодокументирование (комментарии)</t>
+  </si>
+  <si>
+    <t>###</t>
+  </si>
+  <si>
+    <t>Создание новой операции</t>
+  </si>
+  <si>
+    <t>+ - * \ / % ^ ~ &amp; | = &gt; &lt;</t>
+  </si>
+  <si>
+    <t>operand(/+): = {operation(types = list, dict, enum; priority=21): result: for(item -&gt; @first): item + @second: ;}</t>
+  </si>
+  <si>
+    <t>[2, 5, ] /+ 3 = [5, 8, 3]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2140,7 +2953,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -2159,6 +2972,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -2249,7 +3065,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2284,7 +3099,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -2460,14 +3274,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView topLeftCell="A40" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="33.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="14.28515625" customWidth="1"/>
@@ -2480,8 +3294,8 @@
     <col min="10" max="10" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="2" spans="1:10" ht="15.75" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
@@ -2505,7 +3319,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>51</v>
       </c>
@@ -2531,7 +3345,7 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>52</v>
       </c>
@@ -2559,7 +3373,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
         <v>54</v>
       </c>
@@ -2583,7 +3397,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
         <v>58</v>
       </c>
@@ -2607,7 +3421,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
         <v>53</v>
       </c>
@@ -2635,7 +3449,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
         <v>59</v>
       </c>
@@ -2659,7 +3473,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>60</v>
       </c>
@@ -2683,7 +3497,7 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>76</v>
       </c>
@@ -2707,7 +3521,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>76</v>
       </c>
@@ -2727,7 +3541,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="14.25" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>77</v>
       </c>
@@ -2753,7 +3567,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="14.25" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>77</v>
       </c>
@@ -2773,7 +3587,7 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="14.25" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>93</v>
       </c>
@@ -2797,7 +3611,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="14.25" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>92</v>
       </c>
@@ -2821,7 +3635,7 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="14.25" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>93</v>
       </c>
@@ -2845,7 +3659,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="14.25" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>92</v>
       </c>
@@ -2869,7 +3683,7 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
         <v>71</v>
       </c>
@@ -2893,7 +3707,7 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
         <v>72</v>
       </c>
@@ -2919,7 +3733,7 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10">
       <c r="A20" s="1"/>
       <c r="B20" s="8" t="s">
         <v>15</v>
@@ -2941,7 +3755,7 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
         <v>407</v>
       </c>
@@ -2965,7 +3779,7 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
         <v>406</v>
       </c>
@@ -2989,7 +3803,7 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
         <v>405</v>
       </c>
@@ -3011,7 +3825,7 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
         <v>425</v>
       </c>
@@ -3033,7 +3847,7 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
         <v>403</v>
       </c>
@@ -3057,7 +3871,7 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
         <v>404</v>
       </c>
@@ -3081,7 +3895,7 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
         <v>402</v>
       </c>
@@ -3103,7 +3917,7 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
         <v>408</v>
       </c>
@@ -3125,7 +3939,7 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
         <v>409</v>
       </c>
@@ -3147,7 +3961,7 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
         <v>411</v>
       </c>
@@ -3169,7 +3983,7 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
         <v>427</v>
       </c>
@@ -3191,7 +4005,7 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
         <v>488</v>
       </c>
@@ -3209,15 +4023,15 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="D33" s="14"/>
       <c r="E33" s="1"/>
@@ -3227,15 +4041,15 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="D34" s="14"/>
       <c r="E34" s="1"/>
@@ -3245,15 +4059,15 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B35" s="8" t="s">
         <v>499</v>
       </c>
-      <c r="B35" s="8" t="s">
-        <v>503</v>
-      </c>
       <c r="C35" s="1" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="D35" s="14"/>
       <c r="E35" s="1"/>
@@ -3263,15 +4077,15 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="D36" s="14"/>
       <c r="E36" s="1"/>
@@ -3281,15 +4095,15 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="D37" s="14"/>
       <c r="E37" s="1"/>
@@ -3299,15 +4113,15 @@
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="D38" s="14"/>
       <c r="E38" s="1"/>
@@ -3317,7 +4131,7 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
         <v>483</v>
       </c>
@@ -3335,7 +4149,7 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
         <v>483</v>
       </c>
@@ -3351,7 +4165,7 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
         <v>483</v>
       </c>
@@ -3367,15 +4181,15 @@
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
         <v>486</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>495</v>
+        <v>675</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>496</v>
+        <v>677</v>
       </c>
       <c r="D42" s="14"/>
       <c r="E42" s="1"/>
@@ -3385,14 +4199,12 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10">
       <c r="A43" s="1"/>
       <c r="B43" s="8" t="s">
-        <v>497</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>498</v>
-      </c>
+        <v>676</v>
+      </c>
+      <c r="C43" s="1"/>
       <c r="D43" s="14"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -3401,15 +4213,13 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>494</v>
-      </c>
+    <row r="44" spans="1:10">
+      <c r="A44" s="1"/>
       <c r="B44" s="8" t="s">
-        <v>492</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>493</v>
+        <v>678</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>679</v>
       </c>
       <c r="D44" s="14"/>
       <c r="E44" s="1"/>
@@ -3419,73 +4229,113 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
+    <row r="45" spans="1:10">
+      <c r="A45" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>493</v>
+      </c>
       <c r="D45" s="14"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
+      <c r="J45" s="1"/>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>672</v>
+      </c>
+      <c r="C46" s="6"/>
       <c r="D46" s="14"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
+      <c r="F46" s="1" t="s">
+        <v>680</v>
+      </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
+      <c r="J46" s="18"/>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>682</v>
+      </c>
+      <c r="C47" s="6"/>
       <c r="D47" s="14"/>
       <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
+      <c r="F47" s="1" t="s">
+        <v>683</v>
+      </c>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
+      <c r="J47" s="18"/>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>674</v>
+      </c>
+      <c r="C48" s="6"/>
       <c r="D48" s="14"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
+      <c r="J48" s="18"/>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>669</v>
+      </c>
       <c r="C49" s="1"/>
-      <c r="D49" s="14"/>
+      <c r="D49" s="1" t="s">
+        <v>670</v>
+      </c>
       <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
+      <c r="F49" s="1" t="s">
+        <v>686</v>
+      </c>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
+    <row r="50" spans="1:9">
+      <c r="A50" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>685</v>
+      </c>
       <c r="C50" s="1"/>
       <c r="D50" s="14"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
+      <c r="F50" s="1" t="s">
+        <v>687</v>
+      </c>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -3496,7 +4346,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -3507,7 +4357,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -3518,7 +4368,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -3529,6 +4379,50 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3536,14 +4430,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:K161"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
@@ -3552,12 +4446,12 @@
     <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="B2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="B3" t="s">
         <v>107</v>
       </c>
@@ -3589,7 +4483,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="B4" t="s">
         <v>108</v>
       </c>
@@ -3615,7 +4509,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="B5" t="s">
         <v>110</v>
       </c>
@@ -3641,7 +4535,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="B6" t="s">
         <v>111</v>
       </c>
@@ -3667,7 +4561,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>234</v>
       </c>
@@ -3696,7 +4590,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="B8" t="s">
         <v>340</v>
       </c>
@@ -3722,7 +4616,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>370</v>
       </c>
@@ -3748,7 +4642,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>370</v>
       </c>
@@ -3771,7 +4665,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>370</v>
       </c>
@@ -3800,7 +4694,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>370</v>
       </c>
@@ -3811,12 +4705,12 @@
         <v>361</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="B14" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="B15" t="s">
         <v>128</v>
       </c>
@@ -3833,7 +4727,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="B16" t="s">
         <v>108</v>
       </c>
@@ -3850,7 +4744,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="B17" t="s">
         <v>110</v>
       </c>
@@ -3867,7 +4761,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="B18" t="s">
         <v>111</v>
       </c>
@@ -3884,7 +4778,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>234</v>
       </c>
@@ -3904,7 +4798,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="B20" t="s">
         <v>340</v>
       </c>
@@ -3922,7 +4816,7 @@
       </c>
       <c r="H20" s="16"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>371</v>
       </c>
@@ -3948,7 +4842,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>371</v>
       </c>
@@ -3971,7 +4865,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
         <v>371</v>
       </c>
@@ -3997,7 +4891,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>371</v>
       </c>
@@ -4011,12 +4905,12 @@
         <v>359</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="B26" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="B27" t="s">
         <v>145</v>
       </c>
@@ -4033,7 +4927,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="B28" t="s">
         <v>108</v>
       </c>
@@ -4050,7 +4944,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="B29" t="s">
         <v>110</v>
       </c>
@@ -4067,7 +4961,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="B30" t="s">
         <v>111</v>
       </c>
@@ -4084,7 +4978,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
         <v>235</v>
       </c>
@@ -4104,12 +4998,12 @@
         <v>159</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="B37" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="B38" t="s">
         <v>162</v>
       </c>
@@ -4126,7 +5020,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="B39" t="s">
         <v>108</v>
       </c>
@@ -4143,7 +5037,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="B40" t="s">
         <v>110</v>
       </c>
@@ -4160,7 +5054,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="B41" t="s">
         <v>111</v>
       </c>
@@ -4177,7 +5071,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>233</v>
       </c>
@@ -4197,12 +5091,12 @@
         <v>182</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6">
       <c r="B48" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6">
       <c r="B49" t="s">
         <v>184</v>
       </c>
@@ -4219,7 +5113,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6">
       <c r="B50" t="s">
         <v>108</v>
       </c>
@@ -4236,7 +5130,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6">
       <c r="B51" t="s">
         <v>110</v>
       </c>
@@ -4253,7 +5147,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6">
       <c r="B52" t="s">
         <v>111</v>
       </c>
@@ -4270,7 +5164,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
         <v>236</v>
       </c>
@@ -4290,12 +5184,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6">
       <c r="B58" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6">
       <c r="B59" t="s">
         <v>202</v>
       </c>
@@ -4312,7 +5206,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6">
       <c r="B60" t="s">
         <v>108</v>
       </c>
@@ -4329,7 +5223,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6">
       <c r="B61" t="s">
         <v>110</v>
       </c>
@@ -4346,7 +5240,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6">
       <c r="B62" t="s">
         <v>111</v>
       </c>
@@ -4363,7 +5257,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
         <v>237</v>
       </c>
@@ -4383,12 +5277,12 @@
         <v>218</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6">
       <c r="B69" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6">
       <c r="B70" t="s">
         <v>219</v>
       </c>
@@ -4405,7 +5299,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6">
       <c r="B71" t="s">
         <v>108</v>
       </c>
@@ -4422,7 +5316,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6">
       <c r="B72" t="s">
         <v>110</v>
       </c>
@@ -4439,7 +5333,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6">
       <c r="B73" t="s">
         <v>111</v>
       </c>
@@ -4456,7 +5350,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6">
       <c r="A74" t="s">
         <v>232</v>
       </c>
@@ -4476,12 +5370,12 @@
         <v>230</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6">
       <c r="B80" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6">
       <c r="B81" t="s">
         <v>239</v>
       </c>
@@ -4498,7 +5392,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6">
       <c r="B82" t="s">
         <v>108</v>
       </c>
@@ -4515,7 +5409,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6">
       <c r="B83" t="s">
         <v>110</v>
       </c>
@@ -4532,7 +5426,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6">
       <c r="B84" t="s">
         <v>111</v>
       </c>
@@ -4549,7 +5443,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6">
       <c r="A85" t="s">
         <v>261</v>
       </c>
@@ -4569,17 +5463,17 @@
         <v>257</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6">
       <c r="A91" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6">
       <c r="B92" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6">
       <c r="B93" t="s">
         <v>263</v>
       </c>
@@ -4596,7 +5490,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6">
       <c r="B94" t="s">
         <v>108</v>
       </c>
@@ -4613,7 +5507,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6">
       <c r="B95" t="s">
         <v>110</v>
       </c>
@@ -4630,7 +5524,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6">
       <c r="B96" t="s">
         <v>111</v>
       </c>
@@ -4647,7 +5541,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6">
       <c r="B97" t="s">
         <v>109</v>
       </c>
@@ -4664,12 +5558,12 @@
         <v>277</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6">
       <c r="B102" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6">
       <c r="B103" t="s">
         <v>280</v>
       </c>
@@ -4686,7 +5580,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6">
       <c r="B104" t="s">
         <v>108</v>
       </c>
@@ -4703,7 +5597,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6">
       <c r="B105" t="s">
         <v>110</v>
       </c>
@@ -4720,7 +5614,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6">
       <c r="B106" t="s">
         <v>111</v>
       </c>
@@ -4737,7 +5631,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6">
       <c r="A107" t="s">
         <v>287</v>
       </c>
@@ -4757,37 +5651,37 @@
         <v>298</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6">
       <c r="B111" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6">
       <c r="B112" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:6">
       <c r="B113" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:6">
       <c r="B114" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:6">
       <c r="B115" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:6">
       <c r="B118" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:6">
       <c r="B119" t="s">
         <v>306</v>
       </c>
@@ -4804,7 +5698,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:6">
       <c r="B120" t="s">
         <v>108</v>
       </c>
@@ -4821,7 +5715,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:6">
       <c r="B121" t="s">
         <v>110</v>
       </c>
@@ -4838,7 +5732,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:6">
       <c r="B122" t="s">
         <v>111</v>
       </c>
@@ -4855,7 +5749,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:6">
       <c r="B123" t="s">
         <v>109</v>
       </c>
@@ -4872,12 +5766,12 @@
         <v>322</v>
       </c>
     </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:6">
       <c r="B128" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:7">
       <c r="B129" t="s">
         <v>324</v>
       </c>
@@ -4894,7 +5788,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:7">
       <c r="B130" t="s">
         <v>108</v>
       </c>
@@ -4911,7 +5805,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:7">
       <c r="B131" t="s">
         <v>110</v>
       </c>
@@ -4928,7 +5822,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:7">
       <c r="B132" t="s">
         <v>111</v>
       </c>
@@ -4945,7 +5839,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:7">
       <c r="B133" t="s">
         <v>109</v>
       </c>
@@ -4962,7 +5856,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="139" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:7">
       <c r="B139" t="s">
         <v>403</v>
       </c>
@@ -4970,7 +5864,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="140" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:7">
       <c r="B140" t="s">
         <v>428</v>
       </c>
@@ -4990,7 +5884,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="141" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:7">
       <c r="B141" t="s">
         <v>4</v>
       </c>
@@ -5010,7 +5904,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="142" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:7">
       <c r="B142" t="s">
         <v>108</v>
       </c>
@@ -5030,7 +5924,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="143" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:7">
       <c r="B143" t="s">
         <v>110</v>
       </c>
@@ -5050,7 +5944,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="144" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:7">
       <c r="B144" t="s">
         <v>111</v>
       </c>
@@ -5070,7 +5964,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7">
       <c r="B145" t="s">
         <v>109</v>
       </c>
@@ -5090,7 +5984,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7">
       <c r="A146" t="s">
         <v>468</v>
       </c>
@@ -5107,17 +6001,17 @@
         <v>471</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7">
       <c r="B147" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7">
       <c r="B151" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7">
       <c r="B152" t="s">
         <v>449</v>
       </c>
@@ -5137,7 +6031,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7">
       <c r="B153" t="s">
         <v>4</v>
       </c>
@@ -5157,7 +6051,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7">
       <c r="B154" t="s">
         <v>108</v>
       </c>
@@ -5177,7 +6071,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7">
       <c r="B155" t="s">
         <v>110</v>
       </c>
@@ -5197,7 +6091,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7">
       <c r="B156" t="s">
         <v>111</v>
       </c>
@@ -5217,7 +6111,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7">
       <c r="B157" t="s">
         <v>109</v>
       </c>
@@ -5237,17 +6131,17 @@
         <v>466</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7">
       <c r="C159" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7">
       <c r="C160" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="161" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:3">
       <c r="C161" t="s">
         <v>482</v>
       </c>
@@ -5258,707 +6152,1739 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E95"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:G240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="A85" sqref="A85"/>
+    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="D214" sqref="D214"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" customWidth="1"/>
     <col min="3" max="3" width="57.140625" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" customWidth="1"/>
+    <col min="4" max="4" width="42.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5">
       <c r="B2" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" t="s">
+        <v>922</v>
+      </c>
+      <c r="C3" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" t="s">
+        <v>924</v>
+      </c>
+      <c r="C4" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" t="s">
+        <v>927</v>
+      </c>
+      <c r="C5" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" t="s">
+        <v>543</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
         <v>547</v>
       </c>
-      <c r="C2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" t="s">
+        <v>544</v>
+      </c>
+      <c r="C10" t="s">
+        <v>545</v>
+      </c>
+      <c r="D10" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" t="s">
+        <v>546</v>
+      </c>
+      <c r="C11" t="s">
+        <v>559</v>
+      </c>
+      <c r="D11" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="16" t="s">
+        <v>549</v>
+      </c>
+      <c r="C14" t="s">
+        <v>552</v>
+      </c>
+      <c r="D14" s="16" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>548</v>
-      </c>
-      <c r="C3" t="s">
-        <v>549</v>
-      </c>
-      <c r="D3" t="s">
+    <row r="15" spans="2:5">
+      <c r="B15" t="s">
+        <v>550</v>
+      </c>
+      <c r="C15" t="s">
+        <v>553</v>
+      </c>
+      <c r="D15" t="s">
+        <v>556</v>
+      </c>
+      <c r="E15" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" t="s">
+        <v>546</v>
+      </c>
+      <c r="C18" t="s">
+        <v>561</v>
+      </c>
+      <c r="D18" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" t="s">
+        <v>594</v>
+      </c>
+      <c r="C20" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>550</v>
-      </c>
-      <c r="C4" t="s">
-        <v>563</v>
-      </c>
-      <c r="D4" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="16" t="s">
-        <v>553</v>
-      </c>
-      <c r="C7" t="s">
-        <v>556</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>554</v>
-      </c>
-      <c r="C8" t="s">
-        <v>557</v>
-      </c>
-      <c r="D8" t="s">
-        <v>560</v>
-      </c>
-      <c r="E8" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>550</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D20" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" t="s">
         <v>565</v>
       </c>
-      <c r="D11" t="s">
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" t="s">
+        <v>593</v>
+      </c>
+      <c r="C22" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="D22" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>598</v>
-      </c>
-      <c r="C13" t="s">
-        <v>568</v>
-      </c>
-      <c r="D13" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="23" spans="2:4">
+      <c r="B23" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>597</v>
-      </c>
-      <c r="C15" t="s">
+    <row r="24" spans="2:4">
+      <c r="B24" t="s">
+        <v>592</v>
+      </c>
+      <c r="C24" t="s">
         <v>570</v>
-      </c>
-      <c r="D15" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>596</v>
-      </c>
-      <c r="C17" t="s">
-        <v>574</v>
-      </c>
-      <c r="D17" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>577</v>
-      </c>
-      <c r="C19" t="s">
-        <v>578</v>
-      </c>
-      <c r="D19" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>590</v>
-      </c>
-      <c r="C21" t="s">
-        <v>591</v>
-      </c>
-      <c r="D21" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>601</v>
-      </c>
-      <c r="C22" t="s">
-        <v>593</v>
-      </c>
-      <c r="D22" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>595</v>
-      </c>
-      <c r="C24" t="s">
-        <v>599</v>
       </c>
       <c r="D24" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4">
+      <c r="B25" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
       <c r="B26" t="s">
+        <v>573</v>
+      </c>
+      <c r="C26" t="s">
+        <v>574</v>
+      </c>
+      <c r="D26" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" t="s">
+        <v>586</v>
+      </c>
+      <c r="C28" t="s">
+        <v>587</v>
+      </c>
+      <c r="D28" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" t="s">
+        <v>597</v>
+      </c>
+      <c r="C29" t="s">
+        <v>589</v>
+      </c>
+      <c r="D29" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" t="s">
+        <v>591</v>
+      </c>
+      <c r="C31" t="s">
+        <v>595</v>
+      </c>
+      <c r="D31" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" t="s">
+        <v>599</v>
+      </c>
+      <c r="C33" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" s="16" t="s">
+        <v>652</v>
+      </c>
+      <c r="C36" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" t="s">
+        <v>654</v>
+      </c>
+      <c r="C37" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" t="s">
+        <v>508</v>
+      </c>
+      <c r="D39" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" t="s">
+        <v>510</v>
+      </c>
+      <c r="C40" t="s">
+        <v>514</v>
+      </c>
+      <c r="D40" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="B41" t="s">
+        <v>509</v>
+      </c>
+      <c r="C41" t="s">
+        <v>513</v>
+      </c>
+      <c r="D41" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="B42" t="s">
+        <v>515</v>
+      </c>
+      <c r="C42" t="s">
+        <v>525</v>
+      </c>
+      <c r="D42" t="s">
+        <v>526</v>
+      </c>
+      <c r="E42" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5">
+      <c r="B45" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5">
+      <c r="B46" t="s">
+        <v>516</v>
+      </c>
+      <c r="C46" t="s">
+        <v>164</v>
+      </c>
+      <c r="D46" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5">
+      <c r="B47" t="s">
+        <v>517</v>
+      </c>
+      <c r="C47" t="s">
+        <v>166</v>
+      </c>
+      <c r="D47" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5">
+      <c r="B48" t="s">
+        <v>520</v>
+      </c>
+      <c r="C48" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5">
+      <c r="B49" t="s">
+        <v>521</v>
+      </c>
+      <c r="C49" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5">
+      <c r="B50" t="s">
+        <v>522</v>
+      </c>
+      <c r="C50" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5">
+      <c r="B51" t="s">
+        <v>527</v>
+      </c>
+      <c r="C51" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5">
+      <c r="B52" t="s">
+        <v>519</v>
+      </c>
+      <c r="C52" t="s">
+        <v>660</v>
+      </c>
+      <c r="D52" t="s">
+        <v>661</v>
+      </c>
+      <c r="E52" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5">
+      <c r="B53" t="s">
+        <v>518</v>
+      </c>
+      <c r="C53" t="s">
+        <v>659</v>
+      </c>
+      <c r="D53" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5">
+      <c r="B54" t="s">
+        <v>657</v>
+      </c>
+      <c r="C54" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5">
+      <c r="B56" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5">
+      <c r="B57" t="s">
+        <v>611</v>
+      </c>
+      <c r="C57" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5">
+      <c r="B58" t="s">
+        <v>612</v>
+      </c>
+      <c r="C58" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5">
+      <c r="B59" s="16" t="s">
+        <v>530</v>
+      </c>
+      <c r="C59" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5">
+      <c r="B60" t="s">
+        <v>531</v>
+      </c>
+      <c r="C60" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5">
+      <c r="B61" t="s">
+        <v>532</v>
+      </c>
+      <c r="C61" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5">
+      <c r="B62" t="s">
+        <v>533</v>
+      </c>
+      <c r="C62" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5">
+      <c r="B63" t="s">
+        <v>534</v>
+      </c>
+      <c r="C63" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5">
+      <c r="B64" t="s">
+        <v>535</v>
+      </c>
+      <c r="C64" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4">
+      <c r="B65" t="s">
+        <v>536</v>
+      </c>
+      <c r="C65" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4">
+      <c r="B67" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4">
+      <c r="B68" s="16" t="s">
+        <v>577</v>
+      </c>
+      <c r="C68" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4">
+      <c r="B69" t="s">
+        <v>578</v>
+      </c>
+      <c r="C69" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4">
+      <c r="B70" s="16" t="s">
+        <v>579</v>
+      </c>
+      <c r="C70" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4">
+      <c r="B71" t="s">
+        <v>580</v>
+      </c>
+      <c r="C71" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4">
+      <c r="B72" t="s">
+        <v>581</v>
+      </c>
+      <c r="C72" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4">
+      <c r="B73" t="s">
+        <v>582</v>
+      </c>
+      <c r="C73" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4">
+      <c r="B74" t="s">
+        <v>583</v>
+      </c>
+      <c r="C74" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4">
+      <c r="B75" t="s">
+        <v>584</v>
+      </c>
+      <c r="C75" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4">
+      <c r="B77" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4">
+      <c r="B78" t="s">
+        <v>625</v>
+      </c>
+      <c r="C78" t="s">
+        <v>626</v>
+      </c>
+      <c r="D78" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4">
+      <c r="B79" t="s">
+        <v>648</v>
+      </c>
+      <c r="C79" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4">
+      <c r="B80" t="s">
+        <v>664</v>
+      </c>
+      <c r="C80" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3">
+      <c r="B81" t="s">
+        <v>666</v>
+      </c>
+      <c r="C81" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3">
+      <c r="B83" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3">
+      <c r="B84" t="s">
+        <v>42</v>
+      </c>
+      <c r="C84" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3">
+      <c r="B85" t="s">
+        <v>1</v>
+      </c>
+      <c r="C85" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3">
+      <c r="B86" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86" t="s">
         <v>603</v>
       </c>
-      <c r="C26" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="16" t="s">
+    </row>
+    <row r="87" spans="2:3">
+      <c r="B87" t="s">
+        <v>604</v>
+      </c>
+      <c r="C87" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3">
+      <c r="B88" t="s">
+        <v>621</v>
+      </c>
+      <c r="C88" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3">
+      <c r="B89" t="s">
+        <v>629</v>
+      </c>
+      <c r="C89" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3">
+      <c r="B90" t="s">
+        <v>630</v>
+      </c>
+      <c r="C90" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3">
+      <c r="B91" t="s">
+        <v>634</v>
+      </c>
+      <c r="C91" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3">
+      <c r="B92" t="s">
+        <v>622</v>
+      </c>
+      <c r="C92" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3">
+      <c r="B93" t="s">
+        <v>774</v>
+      </c>
+      <c r="C93" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3">
+      <c r="B94" t="s">
+        <v>631</v>
+      </c>
+      <c r="C94" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3">
+      <c r="B95" t="s">
+        <v>633</v>
+      </c>
+      <c r="C95" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3">
+      <c r="B96" t="s">
+        <v>637</v>
+      </c>
+      <c r="C96" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5">
+      <c r="B97" t="s">
+        <v>641</v>
+      </c>
+      <c r="C97" t="s">
+        <v>642</v>
+      </c>
+      <c r="D97" t="s">
         <v>656</v>
       </c>
-      <c r="C29" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>658</v>
-      </c>
-      <c r="C30" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>512</v>
-      </c>
-      <c r="D32" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>514</v>
-      </c>
-      <c r="C33" t="s">
-        <v>518</v>
-      </c>
-      <c r="D33" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>513</v>
-      </c>
-      <c r="C34" t="s">
-        <v>517</v>
-      </c>
-      <c r="D34" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>519</v>
-      </c>
-      <c r="C35" t="s">
-        <v>529</v>
-      </c>
-      <c r="D35" t="s">
-        <v>530</v>
-      </c>
-      <c r="E35" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>520</v>
-      </c>
-      <c r="C39" t="s">
-        <v>164</v>
-      </c>
-      <c r="D39" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>522</v>
-      </c>
-      <c r="C40" t="s">
-        <v>165</v>
-      </c>
-      <c r="D40" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>521</v>
-      </c>
-      <c r="C41" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>523</v>
-      </c>
-      <c r="C42" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>524</v>
-      </c>
-      <c r="C43" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>525</v>
-      </c>
-      <c r="C44" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>526</v>
-      </c>
-      <c r="C45" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>531</v>
-      </c>
-      <c r="C46" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
+    </row>
+    <row r="98" spans="2:5">
+      <c r="B98" t="s">
+        <v>643</v>
+      </c>
+      <c r="C98" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5">
+      <c r="B99" t="s">
+        <v>645</v>
+      </c>
+      <c r="C99" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5">
+      <c r="B100" t="s">
+        <v>650</v>
+      </c>
+      <c r="C100" t="s">
+        <v>647</v>
+      </c>
+      <c r="D100" s="17"/>
+    </row>
+    <row r="101" spans="2:5">
+      <c r="B101" t="s">
+        <v>607</v>
+      </c>
+      <c r="C101" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5">
+      <c r="B103" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5">
+      <c r="B104" t="s">
         <v>615</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C104" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5">
+      <c r="B105" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
+      <c r="C105" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5">
+      <c r="B106" s="16" t="s">
         <v>616</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C106" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5">
+      <c r="B107" s="16" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="16" t="s">
-        <v>534</v>
-      </c>
-      <c r="C50" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>535</v>
-      </c>
-      <c r="C51" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>536</v>
-      </c>
-      <c r="C52" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>537</v>
-      </c>
-      <c r="C53" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>538</v>
-      </c>
-      <c r="C54" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>539</v>
-      </c>
-      <c r="C55" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>540</v>
-      </c>
-      <c r="C56" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B59" s="16" t="s">
-        <v>581</v>
-      </c>
-      <c r="C59" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>582</v>
-      </c>
-      <c r="C60" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B61" s="16" t="s">
-        <v>583</v>
-      </c>
-      <c r="C61" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>584</v>
-      </c>
-      <c r="C62" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>585</v>
-      </c>
-      <c r="C63" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
-        <v>586</v>
-      </c>
-      <c r="C64" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>587</v>
-      </c>
-      <c r="C65" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
-        <v>588</v>
-      </c>
-      <c r="C66" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
-        <v>629</v>
-      </c>
-      <c r="C69" t="s">
-        <v>630</v>
-      </c>
-      <c r="D69" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
-        <v>652</v>
-      </c>
-      <c r="C70" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
-        <v>42</v>
-      </c>
-      <c r="C73" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
-        <v>1</v>
-      </c>
-      <c r="C74" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
-        <v>7</v>
-      </c>
-      <c r="C75" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
-        <v>608</v>
-      </c>
-      <c r="C76" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
-        <v>625</v>
-      </c>
-      <c r="C77" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
-        <v>633</v>
-      </c>
-      <c r="C78" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
-        <v>634</v>
-      </c>
-      <c r="C79" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
-        <v>638</v>
-      </c>
-      <c r="C80" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
-        <v>626</v>
-      </c>
-      <c r="C81" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
-        <v>635</v>
-      </c>
-      <c r="C82" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
-        <v>637</v>
-      </c>
-      <c r="C83" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B84" t="s">
-        <v>641</v>
-      </c>
-      <c r="C84" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B85" t="s">
-        <v>645</v>
-      </c>
-      <c r="C85" t="s">
-        <v>646</v>
-      </c>
-      <c r="D85" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B86" t="s">
-        <v>647</v>
-      </c>
-      <c r="C86" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B87" t="s">
-        <v>649</v>
-      </c>
-      <c r="C87" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
-        <v>654</v>
-      </c>
-      <c r="C88" t="s">
-        <v>651</v>
-      </c>
-      <c r="D88" s="17"/>
-    </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
-        <v>611</v>
-      </c>
-      <c r="C89" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B91" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B92" t="s">
+      <c r="C107" t="s">
         <v>619</v>
       </c>
-      <c r="C92" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B93" t="s">
-        <v>621</v>
-      </c>
-      <c r="C93" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B94" s="16" t="s">
-        <v>620</v>
-      </c>
-      <c r="C94" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B95" s="16" t="s">
-        <v>622</v>
-      </c>
-      <c r="C95" t="s">
-        <v>623</v>
+    </row>
+    <row r="110" spans="2:5">
+      <c r="B110" t="s">
+        <v>698</v>
+      </c>
+      <c r="D110" t="s">
+        <v>714</v>
+      </c>
+      <c r="E110" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5">
+      <c r="B111" t="s">
+        <v>688</v>
+      </c>
+      <c r="C111" t="s">
+        <v>690</v>
+      </c>
+      <c r="D111" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5">
+      <c r="B112" t="s">
+        <v>689</v>
+      </c>
+      <c r="C112" t="s">
+        <v>691</v>
+      </c>
+      <c r="D112" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4">
+      <c r="B113" t="s">
+        <v>692</v>
+      </c>
+      <c r="C113" t="s">
+        <v>704</v>
+      </c>
+      <c r="D113" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4">
+      <c r="B114" t="s">
+        <v>693</v>
+      </c>
+      <c r="C114" t="s">
+        <v>705</v>
+      </c>
+      <c r="D114" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4">
+      <c r="B115" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4">
+      <c r="B116" t="s">
+        <v>694</v>
+      </c>
+      <c r="C116" t="s">
+        <v>706</v>
+      </c>
+      <c r="D116" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4">
+      <c r="B117" t="s">
+        <v>695</v>
+      </c>
+      <c r="C117" t="s">
+        <v>564</v>
+      </c>
+      <c r="D117" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4">
+      <c r="B118" t="s">
+        <v>696</v>
+      </c>
+      <c r="C118" t="s">
+        <v>570</v>
+      </c>
+      <c r="D118" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4">
+      <c r="B119" t="s">
+        <v>697</v>
+      </c>
+      <c r="C119" t="s">
+        <v>566</v>
+      </c>
+      <c r="D119" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4">
+      <c r="B120" t="s">
+        <v>700</v>
+      </c>
+      <c r="C120" t="s">
+        <v>707</v>
+      </c>
+      <c r="D120" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4">
+      <c r="B121" t="s">
+        <v>709</v>
+      </c>
+      <c r="C121" t="s">
+        <v>708</v>
+      </c>
+      <c r="D121" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4">
+      <c r="B122" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4">
+      <c r="B123" t="s">
+        <v>703</v>
+      </c>
+      <c r="C123" t="s">
+        <v>710</v>
+      </c>
+      <c r="D123" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="124" spans="2:4">
+      <c r="B124" t="s">
+        <v>884</v>
+      </c>
+      <c r="C124" t="s">
+        <v>885</v>
+      </c>
+      <c r="D124" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="125" spans="2:4">
+      <c r="B125" t="s">
+        <v>899</v>
+      </c>
+      <c r="C125" t="s">
+        <v>900</v>
+      </c>
+      <c r="D125" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4">
+      <c r="B126" t="s">
+        <v>701</v>
+      </c>
+      <c r="C126" t="s">
+        <v>711</v>
+      </c>
+      <c r="D126" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4">
+      <c r="B127" t="s">
+        <v>712</v>
+      </c>
+      <c r="C127" t="s">
+        <v>713</v>
+      </c>
+      <c r="D127" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="129" spans="2:5">
+      <c r="B129" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5">
+      <c r="B130" t="s">
+        <v>748</v>
+      </c>
+      <c r="C130" t="s">
+        <v>745</v>
+      </c>
+      <c r="D130" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="131" spans="2:5">
+      <c r="B131" t="s">
+        <v>749</v>
+      </c>
+      <c r="C131" t="s">
+        <v>747</v>
+      </c>
+      <c r="D131" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5">
+      <c r="B132" t="s">
+        <v>769</v>
+      </c>
+      <c r="C132" t="s">
+        <v>770</v>
+      </c>
+      <c r="D132" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="133" spans="2:5">
+      <c r="B133" t="s">
+        <v>757</v>
+      </c>
+      <c r="C133" t="s">
+        <v>752</v>
+      </c>
+      <c r="D133" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="134" spans="2:5">
+      <c r="B134" t="s">
+        <v>754</v>
+      </c>
+      <c r="C134" t="s">
+        <v>753</v>
+      </c>
+      <c r="D134" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="135" spans="2:5">
+      <c r="B135" t="s">
+        <v>759</v>
+      </c>
+      <c r="C135" t="s">
+        <v>755</v>
+      </c>
+      <c r="D135" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="136" spans="2:5">
+      <c r="B136" t="s">
+        <v>760</v>
+      </c>
+      <c r="C136" t="s">
+        <v>768</v>
+      </c>
+      <c r="D136" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="137" spans="2:5">
+      <c r="B137" t="s">
+        <v>763</v>
+      </c>
+      <c r="C137" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="138" spans="2:5">
+      <c r="B138" t="s">
+        <v>764</v>
+      </c>
+      <c r="C138" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="139" spans="2:5">
+      <c r="B139" t="s">
+        <v>765</v>
+      </c>
+      <c r="C139" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="140" spans="2:5">
+      <c r="B140" t="s">
+        <v>829</v>
+      </c>
+      <c r="C140" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="141" spans="2:5">
+      <c r="B141" t="s">
+        <v>892</v>
+      </c>
+      <c r="C141" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="142" spans="2:5">
+      <c r="B142" t="s">
+        <v>915</v>
+      </c>
+      <c r="C142" t="s">
+        <v>916</v>
+      </c>
+      <c r="D142" t="s">
+        <v>918</v>
+      </c>
+      <c r="E142" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="143" spans="2:5">
+      <c r="B143" t="s">
+        <v>919</v>
+      </c>
+      <c r="C143" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="147" spans="2:7">
+      <c r="B147" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="148" spans="2:7">
+      <c r="B148" t="s">
+        <v>839</v>
+      </c>
+      <c r="C148" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="149" spans="2:7">
+      <c r="B149" t="s">
+        <v>841</v>
+      </c>
+      <c r="C149" t="s">
+        <v>846</v>
+      </c>
+      <c r="D149" t="s">
+        <v>856</v>
+      </c>
+      <c r="E149" t="s">
+        <v>858</v>
+      </c>
+      <c r="F149" t="s">
+        <v>859</v>
+      </c>
+      <c r="G149" s="19" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="150" spans="2:7">
+      <c r="B150" t="s">
+        <v>842</v>
+      </c>
+      <c r="C150" t="s">
+        <v>845</v>
+      </c>
+      <c r="D150" t="s">
+        <v>860</v>
+      </c>
+      <c r="E150" s="20">
+        <v>100003.2</v>
+      </c>
+    </row>
+    <row r="151" spans="2:7">
+      <c r="B151" t="s">
+        <v>843</v>
+      </c>
+      <c r="C151" t="s">
+        <v>844</v>
+      </c>
+      <c r="D151" t="s">
+        <v>861</v>
+      </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
+      <c r="F151" t="s">
+        <v>862</v>
+      </c>
+      <c r="G151">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="152" spans="2:7">
+      <c r="B152" t="s">
+        <v>847</v>
+      </c>
+      <c r="D152" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="153" spans="2:7">
+      <c r="B153" t="s">
+        <v>848</v>
+      </c>
+      <c r="D153" t="s">
+        <v>863</v>
+      </c>
+      <c r="E153" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="154" spans="2:7">
+      <c r="B154" t="s">
+        <v>849</v>
+      </c>
+      <c r="D154" t="s">
+        <v>866</v>
+      </c>
+      <c r="E154" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="155" spans="2:7">
+      <c r="B155" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="156" spans="2:7">
+      <c r="B156" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="157" spans="2:7">
+      <c r="B157" t="s">
+        <v>852</v>
+      </c>
+      <c r="C157" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="159" spans="2:7">
+      <c r="B159" t="s">
+        <v>843</v>
+      </c>
+      <c r="C159" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161" spans="2:5">
+      <c r="B161" t="s">
+        <v>867</v>
+      </c>
+      <c r="C161" t="s">
+        <v>869</v>
+      </c>
+      <c r="D161" t="s">
+        <v>876</v>
+      </c>
+      <c r="E161">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="2:5">
+      <c r="B162" t="s">
+        <v>868</v>
+      </c>
+      <c r="C162" t="s">
+        <v>870</v>
+      </c>
+      <c r="D162" t="s">
+        <v>877</v>
+      </c>
+      <c r="E162">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="163" spans="2:5">
+      <c r="B163" t="s">
+        <v>871</v>
+      </c>
+      <c r="C163" t="s">
+        <v>872</v>
+      </c>
+      <c r="D163" t="s">
+        <v>878</v>
+      </c>
+      <c r="E163">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="164" spans="2:5">
+      <c r="B164" t="s">
+        <v>883</v>
+      </c>
+      <c r="C164" t="s">
+        <v>873</v>
+      </c>
+      <c r="D164" t="s">
+        <v>875</v>
+      </c>
+      <c r="E164" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="165" spans="2:5">
+      <c r="B165" t="s">
+        <v>882</v>
+      </c>
+      <c r="C165" t="s">
+        <v>879</v>
+      </c>
+      <c r="D165" t="s">
+        <v>880</v>
+      </c>
+      <c r="E165" s="16" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="166" spans="2:5">
+      <c r="B166" t="s">
+        <v>889</v>
+      </c>
+      <c r="C166" t="s">
+        <v>890</v>
+      </c>
+      <c r="D166" t="s">
+        <v>891</v>
+      </c>
+      <c r="E166" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="168" spans="2:5">
+      <c r="B168" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="169" spans="2:5">
+      <c r="B169" t="s">
+        <v>725</v>
+      </c>
+      <c r="C169" t="s">
+        <v>727</v>
+      </c>
+      <c r="D169" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="173" spans="2:5">
+      <c r="B173" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="174" spans="2:5">
+      <c r="B174" t="s">
+        <v>787</v>
+      </c>
+      <c r="C174" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="175" spans="2:5">
+      <c r="B175" t="s">
+        <v>788</v>
+      </c>
+      <c r="C175" t="s">
+        <v>789</v>
+      </c>
+      <c r="D175" t="s">
+        <v>790</v>
+      </c>
+      <c r="E175" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="176" spans="2:5">
+      <c r="B176" t="s">
+        <v>791</v>
+      </c>
+      <c r="C176" t="s">
+        <v>792</v>
+      </c>
+      <c r="D176" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="178" spans="2:5">
+      <c r="B178" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="179" spans="2:5">
+      <c r="B179" t="s">
+        <v>797</v>
+      </c>
+      <c r="C179" t="s">
+        <v>798</v>
+      </c>
+      <c r="D179" t="s">
+        <v>796</v>
+      </c>
+      <c r="E179" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="182" spans="2:5">
+      <c r="B182" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="183" spans="2:5">
+      <c r="B183" t="s">
+        <v>801</v>
+      </c>
+      <c r="C183" t="s">
+        <v>743</v>
+      </c>
+      <c r="D183" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="184" spans="2:5">
+      <c r="B184" t="s">
+        <v>802</v>
+      </c>
+      <c r="C184" t="s">
+        <v>776</v>
+      </c>
+      <c r="D184" t="s">
+        <v>772</v>
+      </c>
+      <c r="E184" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="185" spans="2:5">
+      <c r="B185" t="s">
+        <v>803</v>
+      </c>
+      <c r="C185" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="186" spans="2:5">
+      <c r="B186" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="187" spans="2:5">
+      <c r="B187" t="s">
+        <v>779</v>
+      </c>
+      <c r="C187" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="188" spans="2:5">
+      <c r="B188" t="s">
+        <v>805</v>
+      </c>
+      <c r="C188" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="189" spans="2:5">
+      <c r="B189" t="s">
+        <v>806</v>
+      </c>
+      <c r="C189" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="190" spans="2:5">
+      <c r="B190" t="s">
+        <v>807</v>
+      </c>
+      <c r="C190" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="191" spans="2:5">
+      <c r="B191" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="192" spans="2:5">
+      <c r="B192" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="193" spans="2:6">
+      <c r="B193" t="s">
+        <v>783</v>
+      </c>
+      <c r="C193" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="194" spans="2:6">
+      <c r="B194" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="198" spans="2:6">
+      <c r="B198" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="199" spans="2:6">
+      <c r="B199" t="s">
+        <v>736</v>
+      </c>
+      <c r="C199" t="s">
+        <v>810</v>
+      </c>
+      <c r="D199" t="s">
+        <v>809</v>
+      </c>
+      <c r="E199">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="200" spans="2:6">
+      <c r="B200" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="201" spans="2:6">
+      <c r="B201" t="s">
+        <v>817</v>
+      </c>
+      <c r="C201" t="s">
+        <v>811</v>
+      </c>
+      <c r="D201" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="202" spans="2:6">
+      <c r="B202" t="s">
+        <v>816</v>
+      </c>
+      <c r="C202" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="203" spans="2:6">
+      <c r="B203" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="204" spans="2:6">
+      <c r="B204" t="s">
+        <v>814</v>
+      </c>
+      <c r="D204" t="s">
+        <v>738</v>
+      </c>
+      <c r="E204" s="16" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="205" spans="2:6">
+      <c r="B205" t="s">
+        <v>815</v>
+      </c>
+      <c r="D205" t="s">
+        <v>740</v>
+      </c>
+      <c r="E205" s="19" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="207" spans="2:6">
+      <c r="B207" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="208" spans="2:6">
+      <c r="B208" t="s">
+        <v>835</v>
+      </c>
+      <c r="D208" t="s">
+        <v>818</v>
+      </c>
+      <c r="E208" t="s">
+        <v>819</v>
+      </c>
+      <c r="F208" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="209" spans="2:5">
+      <c r="C209" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="210" spans="2:5">
+      <c r="B210" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="211" spans="2:5">
+      <c r="B211" t="s">
+        <v>821</v>
+      </c>
+      <c r="D211" t="s">
+        <v>822</v>
+      </c>
+      <c r="E211" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="213" spans="2:5">
+      <c r="B213" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="214" spans="2:5">
+      <c r="B214" t="s">
+        <v>930</v>
+      </c>
+      <c r="D214" s="16" t="s">
+        <v>929</v>
+      </c>
+      <c r="E214" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="216" spans="2:5">
+      <c r="B216" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="217" spans="2:5">
+      <c r="B217" t="s">
+        <v>827</v>
+      </c>
+      <c r="C217" t="s">
+        <v>824</v>
+      </c>
+      <c r="D217" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="219" spans="2:5">
+      <c r="B219" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="220" spans="2:5">
+      <c r="B220" t="s">
+        <v>831</v>
+      </c>
+      <c r="D220" t="s">
+        <v>832</v>
+      </c>
+      <c r="E220" s="16" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="222" spans="2:5">
+      <c r="B222" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="223" spans="2:5">
+      <c r="B223" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="226" spans="2:3">
+      <c r="B226" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="227" spans="2:3">
+      <c r="B227" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="228" spans="2:3">
+      <c r="B228" t="s">
+        <v>895</v>
+      </c>
+      <c r="C228" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="229" spans="2:3">
+      <c r="B229" t="s">
+        <v>897</v>
+      </c>
+      <c r="C229" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="230" spans="2:3">
+      <c r="B230" t="s">
+        <v>902</v>
+      </c>
+      <c r="C230" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="232" spans="2:3">
+      <c r="B232" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="233" spans="2:3">
+      <c r="B233" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="234" spans="2:3">
+      <c r="B234" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="235" spans="2:3">
+      <c r="B235" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="237" spans="2:3">
+      <c r="B237" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="238" spans="2:3">
+      <c r="B238" t="s">
+        <v>907</v>
+      </c>
+      <c r="C238" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="239" spans="2:3">
+      <c r="B239" t="s">
+        <v>908</v>
+      </c>
+      <c r="C239" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="240" spans="2:3">
+      <c r="B240" t="s">
+        <v>911</v>
+      </c>
+      <c r="C240" t="s">
+        <v>912</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Примеры.xlsx
+++ b/Примеры.xlsx
@@ -12,6 +12,7 @@
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -6155,7 +6156,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:G240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
       <selection activeCell="D214" sqref="D214"/>
     </sheetView>
   </sheetViews>
